--- a/サンプルアプリケーション/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルアプリケーション/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="16380" windowHeight="8175" tabRatio="489" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="16380" windowHeight="8175" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="150">
   <si>
     <t>no</t>
   </si>
@@ -224,9 +224,6 @@
     <t>リーダー２</t>
   </si>
   <si>
-    <t>備考２</t>
-  </si>
-  <si>
     <t>プロジェクト名３</t>
   </si>
   <si>
@@ -257,18 +254,6 @@
     <t>備考４</t>
   </si>
   <si>
-    <t>プロジェクト名５</t>
-  </si>
-  <si>
-    <t>マネージャー５</t>
-  </si>
-  <si>
-    <t>リーダー５</t>
-  </si>
-  <si>
-    <t>備考５</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -291,9 +276,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>30</t>
   </si>
   <si>
     <t>1</t>
@@ -368,33 +350,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>開始日と終了日が異なる</t>
-    </r>
-    <rPh sb="3" eb="6">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">// </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>期間が過去日のためテストでは範囲外となる</t>
     </r>
     <rPh sb="3" eb="5">
@@ -481,10 +436,6 @@
   </si>
   <si>
     <t>2000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>290000</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -734,38 +685,11 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>のデータの開始日と本データの終了日が同じ</t>
+      <t>のデータの開始日を期間に含む</t>
     </r>
     <rPh sb="20" eb="23">
       <t>カイシビ</t>
     </rPh>
-    <rPh sb="24" eb="25">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>シュウリョウビ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>// project_id:2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のデータの開始日を期間に含む</t>
-    </r>
-    <rPh sb="20" eb="23">
-      <t>カイシビ</t>
-    </rPh>
     <rPh sb="24" eb="26">
       <t>キカン</t>
     </rPh>
@@ -785,12 +709,6 @@
   <si>
     <t>20331103</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2009/05/05</t>
-  </si>
-  <si>
-    <t>290000</t>
   </si>
   <si>
     <t>2018/12/13</t>
@@ -863,6 +781,137 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>20190530</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>20190602</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクト開始日付が業務日付の一日後、期間が過去日のためテストでは範囲外となる</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロジェクト終了日付が業務日付の一日前、期間が未来日のためテストでは範囲外となる</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>// null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>項目のテスト</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最大値のテスト</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱ</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱｱ</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>9223372036854775807</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>2147483647</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>2009/05/05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2019/06/01</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1021,7 +1070,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1135,6 +1184,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1144,7 +1232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1221,6 +1309,20 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1660,7 +1762,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -1699,7 +1801,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1817,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -1807,13 +1909,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1833,22 +1935,22 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>16</v>
@@ -1862,22 +1964,22 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
@@ -1929,7 +2031,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1938,7 +2040,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1988,95 +2090,95 @@
     </row>
     <row r="12" spans="1:16" ht="14.25">
       <c r="A12" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="H12" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="28" t="s">
+      <c r="J12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="K12" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="L12" s="29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.25">
       <c r="A13" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="K13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="28" t="s">
-        <v>58</v>
-      </c>
       <c r="L13" s="29" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2110,101 +2212,101 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="J21" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="L21" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="M21" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="N21" s="33" t="s">
         <v>110</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="29.25">
       <c r="A24" s="17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2224,7 +2326,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2233,7 +2335,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2283,7 +2385,7 @@
     </row>
     <row r="28" spans="1:16" ht="14.25">
       <c r="A28" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>40</v>
@@ -2295,19 +2397,19 @@
         <v>41</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>42</v>
@@ -2316,106 +2418,106 @@
         <v>43</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.25">
       <c r="A29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="28" t="s">
+      <c r="H29" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="28" t="s">
+      <c r="J29" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="K29" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="L29" s="29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25">
       <c r="A30" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I30" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="K30" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="28" t="s">
-        <v>58</v>
-      </c>
       <c r="L30" s="29" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2424,7 +2526,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -2449,102 +2551,102 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="J38" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="K38" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="L38" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="M38" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="N38" s="33" t="s">
         <v>110</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H38" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="N38" s="33" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="31"/>
       <c r="B39" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K39" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L39" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M39" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N39" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="32"/>
       <c r="B40" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>40</v>
@@ -2556,19 +2658,19 @@
         <v>41</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K40" s="34" t="s">
         <v>42</v>
@@ -2577,15 +2679,15 @@
         <v>43</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="29.25">
       <c r="A42" s="17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2605,7 +2707,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2614,7 +2716,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -2664,7 +2766,7 @@
     </row>
     <row r="46" spans="1:16" ht="14.25">
       <c r="A46" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>40</v>
@@ -2676,19 +2778,19 @@
         <v>41</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>42</v>
@@ -2697,106 +2799,106 @@
         <v>43</v>
       </c>
       <c r="L46" s="29" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="14.25">
       <c r="A47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="28" t="s">
+      <c r="H47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I47" s="28" t="s">
+      <c r="J47" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="K47" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="L47" s="29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M47" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="14.25">
       <c r="A48" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I48" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="J48" s="28" t="s">
+      <c r="K48" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="K48" s="28" t="s">
-        <v>58</v>
-      </c>
       <c r="L48" s="29" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M48" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="14.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="14.25">
       <c r="A49" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B49" s="28" t="s">
         <v>44</v>
@@ -2808,16 +2910,16 @@
         <v>45</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>67</v>
+        <v>124</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>46</v>
@@ -2825,126 +2927,130 @@
       <c r="J49" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="28" t="s">
-        <v>48</v>
+      <c r="K49" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M49" s="29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="14.25">
-      <c r="A50" s="29" t="s">
-        <v>69</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="14.25">
+      <c r="A50" s="36" t="s">
+        <v>147</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>147</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="J50" s="28" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L50" s="29" t="s">
-        <v>91</v>
+        <v>145</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>147</v>
       </c>
       <c r="M50" s="29" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="14.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="14.25">
       <c r="A51" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="29" t="s">
-        <v>69</v>
-      </c>
       <c r="I51" s="28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J51" s="28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L51" s="29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M51" s="29" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="B52" s="35"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" s="13" t="s">
         <v>18</v>
       </c>
@@ -2952,7 +3058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:15">
       <c r="A56" s="13" t="s">
         <v>19</v>
       </c>
@@ -2960,188 +3066,191 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:15">
       <c r="A57" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="J58" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="K58" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="L58" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="M58" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="N58" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G58" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H58" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="J58" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K58" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="L58" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="M58" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="N58" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="31"/>
       <c r="B59" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D59" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="L59" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="N59" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="14.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J60" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="L60" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H59" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J59" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="K59" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="L59" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="M59" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="N59" s="33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="31"/>
-      <c r="B60" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J60" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="L60" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="M60" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="N60" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="M60" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="31"/>
       <c r="B61" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H61" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I61" s="19" t="s">
-        <v>69</v>
-      </c>
       <c r="J61" s="34" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K61" s="34" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L61" s="34" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M61" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="31"/>
       <c r="B62" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>40</v>
@@ -3153,19 +3262,19 @@
         <v>41</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J62" s="34" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K62" s="34" t="s">
         <v>42</v>
@@ -3174,16 +3283,16 @@
         <v>43</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="32"/>
       <c r="B63" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>44</v>
@@ -3195,16 +3304,16 @@
         <v>45</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J63" s="34" t="s">
         <v>46</v>
@@ -3212,14 +3321,14 @@
       <c r="K63" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="L63" s="34" t="s">
-        <v>48</v>
+      <c r="L63" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="N63" s="19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルアプリケーション/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
+++ b/サンプルアプリケーション/ソースコード/proman-project/proman-batch/src/test/java/com/nablarch/example/proman/batch/project/ExportProjectsInPeriodActionRequestTest.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="16380" windowHeight="8175" tabRatio="489"/>
   </bookViews>
